--- a/Assets/Resource_SVN/Table/Hero.xlsx
+++ b/Assets/Resource_SVN/Table/Hero.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27255" windowHeight="12645"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
   <si>
     <t>id</t>
   </si>
@@ -87,9 +87,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -107,6 +107,22 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -128,6 +144,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -137,6 +161,20 @@
     <font>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -168,14 +206,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -188,6 +219,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -199,44 +237,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -258,19 +258,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -282,31 +384,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -318,127 +408,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,9 +454,50 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -486,21 +527,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -515,21 +541,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -538,17 +549,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -557,145 +557,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -759,6 +759,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -770,7 +775,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1014,17 +1019,16 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="7"/>
@@ -1100,7 +1104,7 @@
         <v>17</v>
       </c>
       <c r="D3" s="1">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E3" s="1">
         <v>2</v>
@@ -1201,7 +1205,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -1218,7 +1222,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>

--- a/Assets/Resource_SVN/Table/Hero.xlsx
+++ b/Assets/Resource_SVN/Table/Hero.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="26100" windowHeight="11595"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>id</t>
   </si>
@@ -40,6 +40,18 @@
   </si>
   <si>
     <t>拥有技能id</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>string[]</t>
+  </si>
+  <si>
+    <t>int[]</t>
   </si>
   <si>
     <t>Id</t>
@@ -88,8 +100,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -99,6 +111,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -112,8 +139,84 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -121,8 +224,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -137,7 +247,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -145,105 +255,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -258,19 +270,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -282,163 +450,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -449,56 +461,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -541,6 +503,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -549,6 +546,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -557,10 +569,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -569,133 +581,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1025,13 +1037,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="I2" sqref="I$1:N$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
     <col min="2" max="3" width="11.5" customWidth="1"/>
@@ -1075,126 +1087,152 @@
         <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="H2" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
+      <c r="A3" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="1">
-        <v>12</v>
-      </c>
-      <c r="E3" s="1">
-        <v>2</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="1">
+        <v>12</v>
+      </c>
+      <c r="E4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="1">
-        <v>2</v>
-      </c>
-      <c r="E4" s="1">
-        <v>3</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="1">
-        <v>3</v>
-      </c>
-      <c r="E5" s="1">
-        <v>4</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="1">
+      <c r="F6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
         <v>4</v>
       </c>
-      <c r="E6" s="1">
+      <c r="B7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="1">
+        <v>4</v>
+      </c>
+      <c r="E7" s="1">
         <v>0</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>20</v>
+      <c r="F7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resource_SVN/Table/Hero.xlsx
+++ b/Assets/Resource_SVN/Table/Hero.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26100" windowHeight="11595"/>
+    <workbookView windowWidth="15882" windowHeight="13191"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -99,8 +99,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -110,6 +110,73 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
@@ -117,76 +184,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -216,29 +216,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -246,6 +223,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -255,7 +241,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -270,13 +270,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -288,97 +354,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -390,67 +450,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,6 +461,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -484,21 +523,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -532,32 +556,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -569,10 +569,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -581,34 +581,34 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -620,94 +620,94 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1040,10 +1040,10 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I2" sqref="I$1:N$1048576"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
     <col min="2" max="3" width="11.5" customWidth="1"/>
@@ -1168,7 +1168,7 @@
         <v>21</v>
       </c>
       <c r="D5" s="1">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="E5" s="1">
         <v>3</v>
@@ -1194,7 +1194,7 @@
         <v>21</v>
       </c>
       <c r="D6" s="1">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="E6" s="1">
         <v>4</v>
@@ -1251,7 +1251,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.509027777777778" footer="0.509027777777778"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1268,7 +1268,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.509027777777778" footer="0.509027777777778"/>
   <pageSetup paperSize="9" orientation="portrait"/>
